--- a/数据集/数据集链接.xlsx
+++ b/数据集/数据集链接.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11597\Desktop\综述（总结）\数据集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7701DF6A-8964-4685-8739-F36155B3C145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E953BDB1-916B-4B7B-8BB6-052DA8DEEAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>数据集</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,53 +100,82 @@
     <t>METR-LA</t>
   </si>
   <si>
+    <t>https://pan.baidu.com/s/1nJMLRVLgkMptg9YT3W1v5A#list/path=%2F</t>
+  </si>
+  <si>
+    <t>网盘密码：data</t>
+  </si>
+  <si>
+    <t>Q-traffic</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/share/init?surl=s1bauEJs8ONtC65ZkC4N3A</t>
+  </si>
+  <si>
+    <t>网盘密码：umqd</t>
+  </si>
+  <si>
+    <t>BJ-Bike</t>
+  </si>
+  <si>
+    <t>https://github.com/EternityZY/STNSCM/tree/master/data</t>
+  </si>
+  <si>
+    <t>NYC -Bike</t>
+  </si>
+  <si>
+    <t>https://github.com/Echo-Ji/ST-SSL_Dataset/tree/main</t>
+  </si>
+  <si>
+    <t>NYC-Taxi</t>
+  </si>
+  <si>
+    <t>BJ-Taxi</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/zh-cn/azure/open-datasets/dataset-catalog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NYC Taxi（黄、绿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://pan.baidu.com/s/14Yy9isAIZYdU__OYEQGa_g#list/path=/</t>
-  </si>
-  <si>
-    <t>NYC Taxi</t>
-  </si>
-  <si>
-    <t>https://learn.microsoft.com/zh-cn/azure/open-datasets/dataset-catalog</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1nJMLRVLgkMptg9YT3W1v5A#list/path=%2F</t>
-  </si>
-  <si>
-    <t>网盘密码：data</t>
-  </si>
-  <si>
-    <t>Q-traffic</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/share/init?surl=s1bauEJs8ONtC65ZkC4N3A</t>
-  </si>
-  <si>
-    <t>网盘密码：umqd</t>
-  </si>
-  <si>
-    <t>BJ-Bike</t>
-  </si>
-  <si>
-    <t>https://github.com/EternityZY/STNSCM/tree/master/data</t>
-  </si>
-  <si>
-    <t>NYC -Bike</t>
-  </si>
-  <si>
-    <t>https://github.com/Echo-Ji/ST-SSL_Dataset/tree/main</t>
-  </si>
-  <si>
-    <t>NYC-Taxi</t>
-  </si>
-  <si>
-    <t>BJ-Taxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chibike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/LibCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LibCity库中包括上述多种数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>UCY</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/T_C_Ko/article/details/121961696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行人轨迹数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +189,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,14 +222,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -464,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -571,71 +618,111 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{7B50BC30-EBF0-42B2-8462-C879A7D44398}"/>
+    <hyperlink ref="B10" r:id="rId2" location="list/path=/" xr:uid="{6DA78D96-0A7C-4A17-9C5A-43A4641D3BFE}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{141C562C-46D6-43B3-BD53-BBAAA8227E92}"/>
+    <hyperlink ref="B19" r:id="rId4" xr:uid="{5FE680C6-3649-4A68-9B25-625E58DC7F03}"/>
+    <hyperlink ref="B20" r:id="rId5" xr:uid="{0A0DC9C5-05D7-471F-B537-0D248064BD7A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>